--- a/data/Chilkoot weir 12.27.2022.xlsx
+++ b/data/Chilkoot weir 12.27.2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dfg.alaska.local\DCF\Douglas\Region1Shared-DCF\Research\Salmon\Sockeye\Haines\Escapement Data\Chilkoot Lake Weir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\weiRends-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C30052-A32F-4AB0-9EA9-A8624BE5EC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19787A7F-A4A8-4C89-A4DE-D346877AECEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No Interpolations" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6011" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6013" uniqueCount="172">
   <si>
     <t>27-May</t>
   </si>
@@ -544,6 +543,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>no interpolation</t>
+  </si>
+  <si>
+    <t>interpolation</t>
   </si>
 </sst>
 </file>
@@ -1384,16 +1389,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW168"/>
+  <dimension ref="A1:AW171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Y135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO41" sqref="AO41"/>
+      <selection pane="bottomRight" activeCell="Z172" sqref="Z172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -26425,6 +26433,582 @@
       </c>
       <c r="AW168" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169">
+        <f>SUM(C2:C168)</f>
+        <v>71192</v>
+      </c>
+      <c r="D169">
+        <f t="shared" ref="D169:AV169" si="0">SUM(D2:D168)</f>
+        <v>97368</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="0"/>
+        <v>35454</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="0"/>
+        <v>95948</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="0"/>
+        <v>96513</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="0"/>
+        <v>84047</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="0"/>
+        <v>103038</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="0"/>
+        <v>80141</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="0"/>
+        <v>100781</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="0"/>
+        <v>69141</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="0"/>
+        <v>88024</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="0"/>
+        <v>94208</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="0"/>
+        <v>81274</v>
+      </c>
+      <c r="P169">
+        <f t="shared" si="0"/>
+        <v>54900</v>
+      </c>
+      <c r="Q169">
+        <f t="shared" si="0"/>
+        <v>76119</v>
+      </c>
+      <c r="R169">
+        <f t="shared" si="0"/>
+        <v>87254</v>
+      </c>
+      <c r="S169">
+        <f t="shared" si="0"/>
+        <v>65522</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="0"/>
+        <v>52080</v>
+      </c>
+      <c r="U169">
+        <f t="shared" si="0"/>
+        <v>37007</v>
+      </c>
+      <c r="V169">
+        <f t="shared" si="0"/>
+        <v>7177</v>
+      </c>
+      <c r="W169">
+        <f t="shared" si="0"/>
+        <v>50741</v>
+      </c>
+      <c r="X169">
+        <f t="shared" si="0"/>
+        <v>44254</v>
+      </c>
+      <c r="Y169">
+        <f t="shared" si="0"/>
+        <v>12335</v>
+      </c>
+      <c r="Z169">
+        <f t="shared" si="0"/>
+        <v>19284</v>
+      </c>
+      <c r="AA169">
+        <f t="shared" si="0"/>
+        <v>43555</v>
+      </c>
+      <c r="AB169">
+        <f t="shared" si="0"/>
+        <v>76277</v>
+      </c>
+      <c r="AC169">
+        <f t="shared" si="0"/>
+        <v>58361</v>
+      </c>
+      <c r="AD169">
+        <f t="shared" si="0"/>
+        <v>74459</v>
+      </c>
+      <c r="AE169">
+        <f t="shared" si="0"/>
+        <v>75371</v>
+      </c>
+      <c r="AF169">
+        <f t="shared" si="0"/>
+        <v>51178</v>
+      </c>
+      <c r="AG169">
+        <f t="shared" si="0"/>
+        <v>96203</v>
+      </c>
+      <c r="AH169">
+        <f t="shared" si="0"/>
+        <v>72561</v>
+      </c>
+      <c r="AI169">
+        <f t="shared" si="0"/>
+        <v>32957</v>
+      </c>
+      <c r="AJ169">
+        <f t="shared" si="0"/>
+        <v>32861</v>
+      </c>
+      <c r="AK169">
+        <f t="shared" si="0"/>
+        <v>71657</v>
+      </c>
+      <c r="AL169">
+        <f t="shared" si="0"/>
+        <v>65915</v>
+      </c>
+      <c r="AM169">
+        <f t="shared" si="0"/>
+        <v>114025</v>
+      </c>
+      <c r="AN169">
+        <f t="shared" si="0"/>
+        <v>46140</v>
+      </c>
+      <c r="AO169">
+        <f t="shared" si="0"/>
+        <v>105058</v>
+      </c>
+      <c r="AP169">
+        <f t="shared" si="0"/>
+        <v>71515</v>
+      </c>
+      <c r="AQ169">
+        <f t="shared" si="0"/>
+        <v>84972</v>
+      </c>
+      <c r="AR169">
+        <f t="shared" si="0"/>
+        <v>43038</v>
+      </c>
+      <c r="AS169">
+        <f t="shared" si="0"/>
+        <v>84566</v>
+      </c>
+      <c r="AT169">
+        <f t="shared" si="0"/>
+        <v>140378</v>
+      </c>
+      <c r="AU169">
+        <f t="shared" si="0"/>
+        <v>59031</v>
+      </c>
+      <c r="AV169">
+        <f t="shared" si="0"/>
+        <v>95941</v>
+      </c>
+      <c r="AW169">
+        <f>SUM(AW2:AW168)</f>
+        <v>54308</v>
+      </c>
+    </row>
+    <row r="170" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170">
+        <f>SUM(Interpolations!C2:C168)</f>
+        <v>71291</v>
+      </c>
+      <c r="D170">
+        <f>SUM(Interpolations!D2:D168)</f>
+        <v>97368</v>
+      </c>
+      <c r="E170">
+        <f>SUM(Interpolations!E2:E168)</f>
+        <v>35454</v>
+      </c>
+      <c r="F170">
+        <f>SUM(Interpolations!F2:F168)</f>
+        <v>96122</v>
+      </c>
+      <c r="G170">
+        <f>SUM(Interpolations!G2:G168)</f>
+        <v>98673</v>
+      </c>
+      <c r="H170">
+        <f>SUM(Interpolations!H2:H168)</f>
+        <v>84047</v>
+      </c>
+      <c r="I170">
+        <f>SUM(Interpolations!I2:I168)</f>
+        <v>103038</v>
+      </c>
+      <c r="J170">
+        <f>SUM(Interpolations!J2:J168)</f>
+        <v>80141</v>
+      </c>
+      <c r="K170">
+        <f>SUM(Interpolations!K2:K168)</f>
+        <v>100781</v>
+      </c>
+      <c r="L170">
+        <f>SUM(Interpolations!L2:L168)</f>
+        <v>69141</v>
+      </c>
+      <c r="M170">
+        <f>SUM(Interpolations!M2:M168)</f>
+        <v>88024</v>
+      </c>
+      <c r="N170">
+        <f>SUM(Interpolations!N2:N168)</f>
+        <v>94208</v>
+      </c>
+      <c r="O170">
+        <f>SUM(Interpolations!O2:O168)</f>
+        <v>81274</v>
+      </c>
+      <c r="P170">
+        <f>SUM(Interpolations!P2:P168)</f>
+        <v>54900</v>
+      </c>
+      <c r="Q170">
+        <f>SUM(Interpolations!Q2:Q168)</f>
+        <v>76119</v>
+      </c>
+      <c r="R170">
+        <f>SUM(Interpolations!R2:R168)</f>
+        <v>92375</v>
+      </c>
+      <c r="S170">
+        <f>SUM(Interpolations!S2:S168)</f>
+        <v>77601</v>
+      </c>
+      <c r="T170">
+        <f>SUM(Interpolations!T2:T168)</f>
+        <v>52080</v>
+      </c>
+      <c r="U170">
+        <f>SUM(Interpolations!U2:U168)</f>
+        <v>37007</v>
+      </c>
+      <c r="V170">
+        <f>SUM(Interpolations!V2:V168)</f>
+        <v>7177</v>
+      </c>
+      <c r="W170">
+        <f>SUM(Interpolations!W2:W168)</f>
+        <v>50741</v>
+      </c>
+      <c r="X170">
+        <f>SUM(Interpolations!X2:X168)</f>
+        <v>44254</v>
+      </c>
+      <c r="Y170">
+        <f>SUM(Interpolations!Y2:Y168)</f>
+        <v>12335</v>
+      </c>
+      <c r="Z170">
+        <f>SUM(Interpolations!Z2:Z168)</f>
+        <v>19284</v>
+      </c>
+      <c r="AA170">
+        <f>SUM(Interpolations!AA2:AA168)</f>
+        <v>43555</v>
+      </c>
+      <c r="AB170">
+        <f>SUM(Interpolations!AB2:AB168)</f>
+        <v>76283</v>
+      </c>
+      <c r="AC170">
+        <f>SUM(Interpolations!AC2:AC168)</f>
+        <v>58361</v>
+      </c>
+      <c r="AD170">
+        <f>SUM(Interpolations!AD2:AD168)</f>
+        <v>75065</v>
+      </c>
+      <c r="AE170">
+        <f>SUM(Interpolations!AE2:AE168)</f>
+        <v>77660</v>
+      </c>
+      <c r="AF170">
+        <f>SUM(Interpolations!AF2:AF168)</f>
+        <v>51178</v>
+      </c>
+      <c r="AG170">
+        <f>SUM(Interpolations!AG2:AG168)</f>
+        <v>96203</v>
+      </c>
+      <c r="AH170">
+        <f>SUM(Interpolations!AH2:AH168)</f>
+        <v>72678</v>
+      </c>
+      <c r="AI170">
+        <f>SUM(Interpolations!AI2:AI168)</f>
+        <v>33117</v>
+      </c>
+      <c r="AJ170">
+        <f>SUM(Interpolations!AJ2:AJ168)</f>
+        <v>33705</v>
+      </c>
+      <c r="AK170">
+        <f>SUM(Interpolations!AK2:AK168)</f>
+        <v>71657</v>
+      </c>
+      <c r="AL170">
+        <f>SUM(Interpolations!AL2:AL168)</f>
+        <v>65915</v>
+      </c>
+      <c r="AM170">
+        <f>SUM(Interpolations!AM2:AM168)</f>
+        <v>118166</v>
+      </c>
+      <c r="AN170">
+        <f>SUM(Interpolations!AN2:AN168)</f>
+        <v>46329</v>
+      </c>
+      <c r="AO170">
+        <f>SUM(Interpolations!AO2:AO168)</f>
+        <v>105713</v>
+      </c>
+      <c r="AP170">
+        <f>SUM(Interpolations!AP2:AP168)</f>
+        <v>71515</v>
+      </c>
+      <c r="AQ170">
+        <f>SUM(Interpolations!AQ2:AQ168)</f>
+        <v>86721</v>
+      </c>
+      <c r="AR170">
+        <f>SUM(Interpolations!AR2:AR168)</f>
+        <v>43098</v>
+      </c>
+      <c r="AS170">
+        <f>SUM(Interpolations!AS2:AS168)</f>
+        <v>85463</v>
+      </c>
+      <c r="AT170">
+        <f>SUM(Interpolations!AT2:AT168)</f>
+        <v>140378</v>
+      </c>
+      <c r="AU170">
+        <f>SUM(Interpolations!AU2:AU168)</f>
+        <v>60218</v>
+      </c>
+      <c r="AV170">
+        <f>SUM(Interpolations!AV2:AV168)</f>
+        <v>98672</v>
+      </c>
+      <c r="AW170">
+        <f>SUM(Interpolations!AW2:AW168)</f>
+        <v>57176</v>
+      </c>
+    </row>
+    <row r="171" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <f>C170-C169</f>
+        <v>99</v>
+      </c>
+      <c r="D171">
+        <f t="shared" ref="D171:AW171" si="1">D170-D169</f>
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="1"/>
+        <v>2160</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <f t="shared" si="1"/>
+        <v>5121</v>
+      </c>
+      <c r="S171">
+        <f t="shared" si="1"/>
+        <v>12079</v>
+      </c>
+      <c r="T171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB171">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AC171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD171">
+        <f t="shared" si="1"/>
+        <v>606</v>
+      </c>
+      <c r="AE171">
+        <f t="shared" si="1"/>
+        <v>2289</v>
+      </c>
+      <c r="AF171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH171">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="AI171">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="AJ171">
+        <f t="shared" si="1"/>
+        <v>844</v>
+      </c>
+      <c r="AK171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM171">
+        <f t="shared" si="1"/>
+        <v>4141</v>
+      </c>
+      <c r="AN171">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="AO171">
+        <f t="shared" si="1"/>
+        <v>655</v>
+      </c>
+      <c r="AP171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ171">
+        <f t="shared" si="1"/>
+        <v>1749</v>
+      </c>
+      <c r="AR171">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AS171">
+        <f t="shared" si="1"/>
+        <v>897</v>
+      </c>
+      <c r="AT171">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU171">
+        <f t="shared" si="1"/>
+        <v>1187</v>
+      </c>
+      <c r="AV171">
+        <f t="shared" si="1"/>
+        <v>2731</v>
+      </c>
+      <c r="AW171">
+        <f t="shared" si="1"/>
+        <v>2868</v>
       </c>
     </row>
   </sheetData>
@@ -26437,7 +27021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AW168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/data/Chilkoot weir 12.27.2022.xlsx
+++ b/data/Chilkoot weir 12.27.2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\weiRends-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19787A7F-A4A8-4C89-A4DE-D346877AECEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD11BAD-3B14-42B1-887A-0D890BAFFF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6013" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6015" uniqueCount="174">
   <si>
     <t>27-May</t>
   </si>
@@ -550,6 +550,12 @@
   <si>
     <t>interpolation</t>
   </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Bayesian tails</t>
+  </si>
 </sst>
 </file>
 
@@ -691,7 +697,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,6 +877,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1032,8 +1044,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1389,13 +1402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW171"/>
+  <dimension ref="A1:AW172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Y149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z172" sqref="Z172"/>
+      <selection pane="bottomRight" activeCell="AC180" sqref="AC180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,7 +2907,7 @@
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -3043,7 +3056,7 @@
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -3192,7 +3205,7 @@
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -3341,7 +3354,7 @@
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
@@ -3490,7 +3503,7 @@
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -3639,7 +3652,7 @@
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
@@ -3788,7 +3801,7 @@
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
@@ -3937,7 +3950,7 @@
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
@@ -4086,7 +4099,7 @@
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
@@ -4235,7 +4248,7 @@
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
@@ -4384,7 +4397,7 @@
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21">
@@ -4533,7 +4546,7 @@
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
@@ -4682,7 +4695,7 @@
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
@@ -4831,7 +4844,7 @@
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
@@ -4980,7 +4993,7 @@
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25">
@@ -5129,7 +5142,7 @@
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26">
@@ -5278,7 +5291,7 @@
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27">
@@ -5427,7 +5440,7 @@
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
@@ -5576,7 +5589,7 @@
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29">
@@ -5725,7 +5738,7 @@
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30">
@@ -5874,7 +5887,7 @@
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31">
@@ -6023,7 +6036,7 @@
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32">
@@ -6172,7 +6185,7 @@
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33">
@@ -6321,7 +6334,7 @@
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34">
@@ -6470,7 +6483,7 @@
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35">
@@ -6619,7 +6632,7 @@
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36">
@@ -6768,7 +6781,7 @@
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37">
@@ -6917,7 +6930,7 @@
       </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38">
@@ -7066,7 +7079,7 @@
       </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39">
@@ -7215,7 +7228,7 @@
       </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40">
@@ -7364,7 +7377,7 @@
       </c>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41">
@@ -7513,7 +7526,7 @@
       </c>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42">
@@ -7662,7 +7675,7 @@
       </c>
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43">
@@ -7811,7 +7824,7 @@
       </c>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44">
@@ -7960,7 +7973,7 @@
       </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45">
@@ -8109,7 +8122,7 @@
       </c>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46">
@@ -8258,7 +8271,7 @@
       </c>
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47">
@@ -8407,7 +8420,7 @@
       </c>
     </row>
     <row r="48" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48">
@@ -8556,7 +8569,7 @@
       </c>
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49">
@@ -8705,7 +8718,7 @@
       </c>
     </row>
     <row r="50" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B50">
@@ -8854,7 +8867,7 @@
       </c>
     </row>
     <row r="51" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51">
@@ -9003,7 +9016,7 @@
       </c>
     </row>
     <row r="52" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B52">
@@ -9152,7 +9165,7 @@
       </c>
     </row>
     <row r="53" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B53">
@@ -9301,7 +9314,7 @@
       </c>
     </row>
     <row r="54" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B54">
@@ -9450,7 +9463,7 @@
       </c>
     </row>
     <row r="55" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B55">
@@ -9599,7 +9612,7 @@
       </c>
     </row>
     <row r="56" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B56">
@@ -9748,7 +9761,7 @@
       </c>
     </row>
     <row r="57" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B57">
@@ -9897,7 +9910,7 @@
       </c>
     </row>
     <row r="58" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B58">
@@ -10046,7 +10059,7 @@
       </c>
     </row>
     <row r="59" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B59">
@@ -10195,7 +10208,7 @@
       </c>
     </row>
     <row r="60" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B60">
@@ -10344,7 +10357,7 @@
       </c>
     </row>
     <row r="61" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B61">
@@ -10493,7 +10506,7 @@
       </c>
     </row>
     <row r="62" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B62">
@@ -10642,7 +10655,7 @@
       </c>
     </row>
     <row r="63" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B63">
@@ -10791,7 +10804,7 @@
       </c>
     </row>
     <row r="64" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B64">
@@ -10940,7 +10953,7 @@
       </c>
     </row>
     <row r="65" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B65">
@@ -11089,7 +11102,7 @@
       </c>
     </row>
     <row r="66" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66">
@@ -11238,7 +11251,7 @@
       </c>
     </row>
     <row r="67" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B67">
@@ -11387,7 +11400,7 @@
       </c>
     </row>
     <row r="68" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B68">
@@ -11536,7 +11549,7 @@
       </c>
     </row>
     <row r="69" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B69">
@@ -11685,7 +11698,7 @@
       </c>
     </row>
     <row r="70" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B70">
@@ -11834,7 +11847,7 @@
       </c>
     </row>
     <row r="71" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B71">
@@ -11983,7 +11996,7 @@
       </c>
     </row>
     <row r="72" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B72">
@@ -12132,7 +12145,7 @@
       </c>
     </row>
     <row r="73" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73">
@@ -12281,7 +12294,7 @@
       </c>
     </row>
     <row r="74" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B74">
@@ -12430,7 +12443,7 @@
       </c>
     </row>
     <row r="75" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75">
@@ -12579,7 +12592,7 @@
       </c>
     </row>
     <row r="76" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76">
@@ -12728,7 +12741,7 @@
       </c>
     </row>
     <row r="77" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B77">
@@ -12877,7 +12890,7 @@
       </c>
     </row>
     <row r="78" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B78">
@@ -13026,7 +13039,7 @@
       </c>
     </row>
     <row r="79" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B79">
@@ -13175,7 +13188,7 @@
       </c>
     </row>
     <row r="80" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B80">
@@ -13324,7 +13337,7 @@
       </c>
     </row>
     <row r="81" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B81">
@@ -13473,7 +13486,7 @@
       </c>
     </row>
     <row r="82" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B82">
@@ -13622,7 +13635,7 @@
       </c>
     </row>
     <row r="83" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B83">
@@ -13771,7 +13784,7 @@
       </c>
     </row>
     <row r="84" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B84">
@@ -13920,7 +13933,7 @@
       </c>
     </row>
     <row r="85" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B85">
@@ -14069,7 +14082,7 @@
       </c>
     </row>
     <row r="86" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B86">
@@ -14218,7 +14231,7 @@
       </c>
     </row>
     <row r="87" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B87">
@@ -14367,7 +14380,7 @@
       </c>
     </row>
     <row r="88" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B88">
@@ -14516,7 +14529,7 @@
       </c>
     </row>
     <row r="89" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B89">
@@ -14665,7 +14678,7 @@
       </c>
     </row>
     <row r="90" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B90">
@@ -14814,7 +14827,7 @@
       </c>
     </row>
     <row r="91" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B91">
@@ -14963,7 +14976,7 @@
       </c>
     </row>
     <row r="92" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B92">
@@ -15112,7 +15125,7 @@
       </c>
     </row>
     <row r="93" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B93">
@@ -15261,7 +15274,7 @@
       </c>
     </row>
     <row r="94" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B94">
@@ -15410,7 +15423,7 @@
       </c>
     </row>
     <row r="95" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B95">
@@ -15559,7 +15572,7 @@
       </c>
     </row>
     <row r="96" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B96">
@@ -15708,7 +15721,7 @@
       </c>
     </row>
     <row r="97" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B97">
@@ -15857,7 +15870,7 @@
       </c>
     </row>
     <row r="98" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B98">
@@ -16006,7 +16019,7 @@
       </c>
     </row>
     <row r="99" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B99">
@@ -16155,7 +16168,7 @@
       </c>
     </row>
     <row r="100" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B100">
@@ -16304,7 +16317,7 @@
       </c>
     </row>
     <row r="101" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B101">
@@ -16453,7 +16466,7 @@
       </c>
     </row>
     <row r="102" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B102">
@@ -16602,7 +16615,7 @@
       </c>
     </row>
     <row r="103" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B103">
@@ -16751,7 +16764,7 @@
       </c>
     </row>
     <row r="104" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B104">
@@ -16900,7 +16913,7 @@
       </c>
     </row>
     <row r="105" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B105">
@@ -17049,7 +17062,7 @@
       </c>
     </row>
     <row r="106" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B106">
@@ -17198,7 +17211,7 @@
       </c>
     </row>
     <row r="107" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B107">
@@ -17347,7 +17360,7 @@
       </c>
     </row>
     <row r="108" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B108">
@@ -17496,7 +17509,7 @@
       </c>
     </row>
     <row r="109" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B109">
@@ -17645,7 +17658,7 @@
       </c>
     </row>
     <row r="110" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B110">
@@ -26440,80 +26453,80 @@
         <v>170</v>
       </c>
       <c r="C169">
-        <f>SUM(C2:C168)</f>
-        <v>71192</v>
+        <f>SUM(C11:C110)</f>
+        <v>70612</v>
       </c>
       <c r="D169">
-        <f t="shared" ref="D169:AV169" si="0">SUM(D2:D168)</f>
-        <v>97368</v>
+        <f t="shared" ref="D169:AW169" si="0">SUM(D11:D110)</f>
+        <v>97354</v>
       </c>
       <c r="E169">
         <f t="shared" si="0"/>
-        <v>35454</v>
+        <v>35261</v>
       </c>
       <c r="F169">
         <f t="shared" si="0"/>
-        <v>95948</v>
+        <v>95858</v>
       </c>
       <c r="G169">
         <f t="shared" si="0"/>
-        <v>96513</v>
+        <v>96405</v>
       </c>
       <c r="H169">
         <f t="shared" si="0"/>
-        <v>84047</v>
+        <v>83998</v>
       </c>
       <c r="I169">
         <f t="shared" si="0"/>
-        <v>103038</v>
+        <v>102420</v>
       </c>
       <c r="J169">
         <f t="shared" si="0"/>
-        <v>80141</v>
+        <v>78835</v>
       </c>
       <c r="K169">
         <f t="shared" si="0"/>
-        <v>100781</v>
+        <v>100300</v>
       </c>
       <c r="L169">
         <f t="shared" si="0"/>
-        <v>69141</v>
+        <v>68328</v>
       </c>
       <c r="M169">
         <f t="shared" si="0"/>
-        <v>88024</v>
+        <v>86609</v>
       </c>
       <c r="N169">
         <f t="shared" si="0"/>
-        <v>94208</v>
+        <v>93836</v>
       </c>
       <c r="O169">
         <f t="shared" si="0"/>
-        <v>81274</v>
+        <v>80125</v>
       </c>
       <c r="P169">
         <f t="shared" si="0"/>
-        <v>54900</v>
+        <v>53551</v>
       </c>
       <c r="Q169">
         <f t="shared" si="0"/>
-        <v>76119</v>
+        <v>75293</v>
       </c>
       <c r="R169">
         <f t="shared" si="0"/>
-        <v>87254</v>
+        <v>85966</v>
       </c>
       <c r="S169">
         <f t="shared" si="0"/>
-        <v>65522</v>
+        <v>64891</v>
       </c>
       <c r="T169">
         <f t="shared" si="0"/>
-        <v>52080</v>
+        <v>51380</v>
       </c>
       <c r="U169">
         <f t="shared" si="0"/>
-        <v>37007</v>
+        <v>36754</v>
       </c>
       <c r="V169">
         <f t="shared" si="0"/>
@@ -26525,15 +26538,15 @@
       </c>
       <c r="X169">
         <f t="shared" si="0"/>
-        <v>44254</v>
+        <v>44247</v>
       </c>
       <c r="Y169">
         <f t="shared" si="0"/>
-        <v>12335</v>
+        <v>12301</v>
       </c>
       <c r="Z169">
         <f t="shared" si="0"/>
-        <v>19284</v>
+        <v>19150</v>
       </c>
       <c r="AA169">
         <f t="shared" si="0"/>
@@ -26553,7 +26566,7 @@
       </c>
       <c r="AE169">
         <f t="shared" si="0"/>
-        <v>75371</v>
+        <v>75352</v>
       </c>
       <c r="AF169">
         <f t="shared" si="0"/>
@@ -26561,11 +26574,11 @@
       </c>
       <c r="AG169">
         <f t="shared" si="0"/>
-        <v>96203</v>
+        <v>95660</v>
       </c>
       <c r="AH169">
         <f t="shared" si="0"/>
-        <v>72561</v>
+        <v>72545</v>
       </c>
       <c r="AI169">
         <f t="shared" si="0"/>
@@ -26577,7 +26590,7 @@
       </c>
       <c r="AK169">
         <f t="shared" si="0"/>
-        <v>71657</v>
+        <v>71602</v>
       </c>
       <c r="AL169">
         <f t="shared" si="0"/>
@@ -26585,19 +26598,19 @@
       </c>
       <c r="AM169">
         <f t="shared" si="0"/>
-        <v>114025</v>
+        <v>113981</v>
       </c>
       <c r="AN169">
         <f t="shared" si="0"/>
-        <v>46140</v>
+        <v>46139</v>
       </c>
       <c r="AO169">
         <f t="shared" si="0"/>
-        <v>105058</v>
+        <v>105056</v>
       </c>
       <c r="AP169">
         <f t="shared" si="0"/>
-        <v>71515</v>
+        <v>71514</v>
       </c>
       <c r="AQ169">
         <f t="shared" si="0"/>
@@ -26605,7 +26618,7 @@
       </c>
       <c r="AR169">
         <f t="shared" si="0"/>
-        <v>43038</v>
+        <v>43015</v>
       </c>
       <c r="AS169">
         <f t="shared" si="0"/>
@@ -26624,7 +26637,7 @@
         <v>95941</v>
       </c>
       <c r="AW169">
-        <f>SUM(AW2:AW168)</f>
+        <f t="shared" si="0"/>
         <v>54308</v>
       </c>
     </row>
@@ -26633,195 +26646,198 @@
         <v>171</v>
       </c>
       <c r="C170">
-        <f>SUM(Interpolations!C2:C168)</f>
-        <v>71291</v>
+        <f>SUM(Interpolations!C11:C110)</f>
+        <v>70711</v>
       </c>
       <c r="D170">
-        <f>SUM(Interpolations!D2:D168)</f>
-        <v>97368</v>
+        <f>SUM(Interpolations!D11:D110)</f>
+        <v>97354</v>
       </c>
       <c r="E170">
-        <f>SUM(Interpolations!E2:E168)</f>
-        <v>35454</v>
+        <f>SUM(Interpolations!E11:E110)</f>
+        <v>35261</v>
       </c>
       <c r="F170">
-        <f>SUM(Interpolations!F2:F168)</f>
-        <v>96122</v>
+        <f>SUM(Interpolations!F11:F110)</f>
+        <v>96032</v>
       </c>
       <c r="G170">
-        <f>SUM(Interpolations!G2:G168)</f>
-        <v>98673</v>
+        <f>SUM(Interpolations!G11:G110)</f>
+        <v>98565</v>
       </c>
       <c r="H170">
-        <f>SUM(Interpolations!H2:H168)</f>
-        <v>84047</v>
+        <f>SUM(Interpolations!H11:H110)</f>
+        <v>83998</v>
       </c>
       <c r="I170">
-        <f>SUM(Interpolations!I2:I168)</f>
-        <v>103038</v>
+        <f>SUM(Interpolations!I11:I110)</f>
+        <v>102420</v>
       </c>
       <c r="J170">
-        <f>SUM(Interpolations!J2:J168)</f>
-        <v>80141</v>
+        <f>SUM(Interpolations!J11:J110)</f>
+        <v>78835</v>
       </c>
       <c r="K170">
-        <f>SUM(Interpolations!K2:K168)</f>
-        <v>100781</v>
+        <f>SUM(Interpolations!K11:K110)</f>
+        <v>100300</v>
       </c>
       <c r="L170">
-        <f>SUM(Interpolations!L2:L168)</f>
-        <v>69141</v>
+        <f>SUM(Interpolations!L11:L110)</f>
+        <v>68328</v>
       </c>
       <c r="M170">
-        <f>SUM(Interpolations!M2:M168)</f>
-        <v>88024</v>
+        <f>SUM(Interpolations!M11:M110)</f>
+        <v>86609</v>
       </c>
       <c r="N170">
-        <f>SUM(Interpolations!N2:N168)</f>
-        <v>94208</v>
+        <f>SUM(Interpolations!N11:N110)</f>
+        <v>93836</v>
       </c>
       <c r="O170">
-        <f>SUM(Interpolations!O2:O168)</f>
-        <v>81274</v>
+        <f>SUM(Interpolations!O11:O110)</f>
+        <v>80125</v>
       </c>
       <c r="P170">
-        <f>SUM(Interpolations!P2:P168)</f>
-        <v>54900</v>
+        <f>SUM(Interpolations!P11:P110)</f>
+        <v>53551</v>
       </c>
       <c r="Q170">
-        <f>SUM(Interpolations!Q2:Q168)</f>
-        <v>76119</v>
+        <f>SUM(Interpolations!Q11:Q110)</f>
+        <v>75293</v>
       </c>
       <c r="R170">
-        <f>SUM(Interpolations!R2:R168)</f>
-        <v>92375</v>
+        <f>SUM(Interpolations!R11:R110)</f>
+        <v>91087</v>
       </c>
       <c r="S170">
-        <f>SUM(Interpolations!S2:S168)</f>
-        <v>77601</v>
+        <f>SUM(Interpolations!S11:S110)</f>
+        <v>76970</v>
       </c>
       <c r="T170">
-        <f>SUM(Interpolations!T2:T168)</f>
-        <v>52080</v>
+        <f>SUM(Interpolations!T11:T110)</f>
+        <v>51380</v>
       </c>
       <c r="U170">
-        <f>SUM(Interpolations!U2:U168)</f>
-        <v>37007</v>
+        <f>SUM(Interpolations!U11:U110)</f>
+        <v>36754</v>
       </c>
       <c r="V170">
-        <f>SUM(Interpolations!V2:V168)</f>
+        <f>SUM(Interpolations!V11:V110)</f>
         <v>7177</v>
       </c>
       <c r="W170">
-        <f>SUM(Interpolations!W2:W168)</f>
+        <f>SUM(Interpolations!W11:W110)</f>
         <v>50741</v>
       </c>
       <c r="X170">
-        <f>SUM(Interpolations!X2:X168)</f>
-        <v>44254</v>
+        <f>SUM(Interpolations!X11:X110)</f>
+        <v>44247</v>
       </c>
       <c r="Y170">
-        <f>SUM(Interpolations!Y2:Y168)</f>
-        <v>12335</v>
+        <f>SUM(Interpolations!Y11:Y110)</f>
+        <v>12301</v>
       </c>
       <c r="Z170">
-        <f>SUM(Interpolations!Z2:Z168)</f>
-        <v>19284</v>
+        <f>SUM(Interpolations!Z11:Z110)</f>
+        <v>19150</v>
       </c>
       <c r="AA170">
-        <f>SUM(Interpolations!AA2:AA168)</f>
+        <f>SUM(Interpolations!AA11:AA110)</f>
         <v>43555</v>
       </c>
       <c r="AB170">
-        <f>SUM(Interpolations!AB2:AB168)</f>
+        <f>SUM(Interpolations!AB11:AB110)</f>
         <v>76283</v>
       </c>
       <c r="AC170">
-        <f>SUM(Interpolations!AC2:AC168)</f>
+        <f>SUM(Interpolations!AC11:AC110)</f>
         <v>58361</v>
       </c>
       <c r="AD170">
-        <f>SUM(Interpolations!AD2:AD168)</f>
+        <f>SUM(Interpolations!AD11:AD110)</f>
         <v>75065</v>
       </c>
       <c r="AE170">
-        <f>SUM(Interpolations!AE2:AE168)</f>
-        <v>77660</v>
+        <f>SUM(Interpolations!AE11:AE110)</f>
+        <v>77641</v>
       </c>
       <c r="AF170">
-        <f>SUM(Interpolations!AF2:AF168)</f>
+        <f>SUM(Interpolations!AF11:AF110)</f>
         <v>51178</v>
       </c>
       <c r="AG170">
-        <f>SUM(Interpolations!AG2:AG168)</f>
-        <v>96203</v>
+        <f>SUM(Interpolations!AG11:AG110)</f>
+        <v>95660</v>
       </c>
       <c r="AH170">
-        <f>SUM(Interpolations!AH2:AH168)</f>
-        <v>72678</v>
+        <f>SUM(Interpolations!AH11:AH110)</f>
+        <v>72662</v>
       </c>
       <c r="AI170">
-        <f>SUM(Interpolations!AI2:AI168)</f>
+        <f>SUM(Interpolations!AI11:AI110)</f>
         <v>33117</v>
       </c>
       <c r="AJ170">
-        <f>SUM(Interpolations!AJ2:AJ168)</f>
+        <f>SUM(Interpolations!AJ11:AJ110)</f>
         <v>33705</v>
       </c>
       <c r="AK170">
-        <f>SUM(Interpolations!AK2:AK168)</f>
-        <v>71657</v>
+        <f>SUM(Interpolations!AK11:AK110)</f>
+        <v>71602</v>
       </c>
       <c r="AL170">
-        <f>SUM(Interpolations!AL2:AL168)</f>
+        <f>SUM(Interpolations!AL11:AL110)</f>
         <v>65915</v>
       </c>
       <c r="AM170">
-        <f>SUM(Interpolations!AM2:AM168)</f>
-        <v>118166</v>
+        <f>SUM(Interpolations!AM11:AM110)</f>
+        <v>118122</v>
       </c>
       <c r="AN170">
-        <f>SUM(Interpolations!AN2:AN168)</f>
-        <v>46329</v>
+        <f>SUM(Interpolations!AN11:AN110)</f>
+        <v>46328</v>
       </c>
       <c r="AO170">
-        <f>SUM(Interpolations!AO2:AO168)</f>
-        <v>105713</v>
+        <f>SUM(Interpolations!AO11:AO110)</f>
+        <v>105711</v>
       </c>
       <c r="AP170">
-        <f>SUM(Interpolations!AP2:AP168)</f>
-        <v>71515</v>
+        <f>SUM(Interpolations!AP11:AP110)</f>
+        <v>71514</v>
       </c>
       <c r="AQ170">
-        <f>SUM(Interpolations!AQ2:AQ168)</f>
+        <f>SUM(Interpolations!AQ11:AQ110)</f>
         <v>86721</v>
       </c>
       <c r="AR170">
-        <f>SUM(Interpolations!AR2:AR168)</f>
-        <v>43098</v>
+        <f>SUM(Interpolations!AR11:AR110)</f>
+        <v>43075</v>
       </c>
       <c r="AS170">
-        <f>SUM(Interpolations!AS2:AS168)</f>
+        <f>SUM(Interpolations!AS11:AS110)</f>
         <v>85463</v>
       </c>
       <c r="AT170">
-        <f>SUM(Interpolations!AT2:AT168)</f>
+        <f>SUM(Interpolations!AT11:AT110)</f>
         <v>140378</v>
       </c>
       <c r="AU170">
-        <f>SUM(Interpolations!AU2:AU168)</f>
+        <f>SUM(Interpolations!AU11:AU110)</f>
         <v>60218</v>
       </c>
       <c r="AV170">
-        <f>SUM(Interpolations!AV2:AV168)</f>
+        <f>SUM(Interpolations!AV11:AV110)</f>
         <v>98672</v>
       </c>
       <c r="AW170">
-        <f>SUM(Interpolations!AW2:AW168)</f>
+        <f>SUM(Interpolations!AW11:AW110)</f>
         <v>57176</v>
       </c>
     </row>
     <row r="171" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>172</v>
+      </c>
       <c r="C171">
         <f>C170-C169</f>
         <v>99</v>
@@ -27009,6 +27025,80 @@
       <c r="AW171">
         <f t="shared" si="1"/>
         <v>2868</v>
+      </c>
+    </row>
+    <row r="172" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA172">
+        <v>0</v>
+      </c>
+      <c r="AB172">
+        <v>3</v>
+      </c>
+      <c r="AC172">
+        <v>207</v>
+      </c>
+      <c r="AD172">
+        <v>1864</v>
+      </c>
+      <c r="AE172">
+        <v>245</v>
+      </c>
+      <c r="AF172">
+        <v>0</v>
+      </c>
+      <c r="AG172">
+        <v>0</v>
+      </c>
+      <c r="AH172">
+        <v>586</v>
+      </c>
+      <c r="AI172">
+        <v>501</v>
+      </c>
+      <c r="AJ172">
+        <v>1210</v>
+      </c>
+      <c r="AK172">
+        <v>0</v>
+      </c>
+      <c r="AL172">
+        <v>863</v>
+      </c>
+      <c r="AM172">
+        <v>15</v>
+      </c>
+      <c r="AN172">
+        <v>7</v>
+      </c>
+      <c r="AO172">
+        <v>396</v>
+      </c>
+      <c r="AP172">
+        <v>1206</v>
+      </c>
+      <c r="AQ172">
+        <v>5851</v>
+      </c>
+      <c r="AR172">
+        <v>497</v>
+      </c>
+      <c r="AS172">
+        <v>2704</v>
+      </c>
+      <c r="AT172">
+        <v>105</v>
+      </c>
+      <c r="AU172">
+        <v>1637</v>
+      </c>
+      <c r="AV172">
+        <v>6599</v>
+      </c>
+      <c r="AW172">
+        <v>3403</v>
       </c>
     </row>
   </sheetData>
@@ -27021,7 +27111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AW168"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
